--- a/docs/examples/results/EnrichmentOutputDirectory/GOAnalysis/analysisGOMixedMulti.xlsx
+++ b/docs/examples/results/EnrichmentOutputDirectory/GOAnalysis/analysisGOMixedMulti.xlsx
@@ -1152,7 +1152,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3266,7 +3266,7 @@
         <v>0.003635579205222172</v>
       </c>
       <c r="C57" s="1">
-        <v>0.01549283633244813</v>
+        <v>0.01549283608831514</v>
       </c>
       <c r="D57" s="1" t="b">
         <v>1</v>
@@ -3298,7 +3298,7 @@
         <v>0.003635579205222172</v>
       </c>
       <c r="C58" s="1">
-        <v>0.01549283633244813</v>
+        <v>0.01549283608831514</v>
       </c>
       <c r="D58" s="1" t="b">
         <v>1</v>
@@ -3330,7 +3330,7 @@
         <v>0.003635579205222172</v>
       </c>
       <c r="C59" s="1">
-        <v>0.01549283633244813</v>
+        <v>0.01549283608831514</v>
       </c>
       <c r="D59" s="1" t="b">
         <v>1</v>
@@ -3359,10 +3359,10 @@
         <v>67</v>
       </c>
       <c r="B60" s="1">
-        <v>0.003680290623033655</v>
+        <v>0.003680290565040378</v>
       </c>
       <c r="C60" s="1">
-        <v>0.01549283633244813</v>
+        <v>0.01549283608831514</v>
       </c>
       <c r="D60" s="1" t="b">
         <v>1</v>
@@ -3394,7 +3394,7 @@
         <v>0.003635579205222172</v>
       </c>
       <c r="C61" s="1">
-        <v>0.01549283633244813</v>
+        <v>0.01549283608831514</v>
       </c>
       <c r="D61" s="1" t="b">
         <v>1</v>
@@ -3426,7 +3426,7 @@
         <v>0.003635579205222172</v>
       </c>
       <c r="C62" s="1">
-        <v>0.01549283633244813</v>
+        <v>0.01549283608831514</v>
       </c>
       <c r="D62" s="1" t="b">
         <v>1</v>
@@ -3458,7 +3458,7 @@
         <v>0.003635579205222172</v>
       </c>
       <c r="C63" s="1">
-        <v>0.01549283633244813</v>
+        <v>0.01549283608831514</v>
       </c>
       <c r="D63" s="1" t="b">
         <v>1</v>
